--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Documents\Guias\Tercero\M1689-Virt\Practicas\P4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irubio\Downloads\subir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jbb" sheetId="2" r:id="rId2"/>
     <sheet name="web" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
   <si>
     <t>410.bwaves</t>
   </si>
@@ -79,18 +79,6 @@
     <t>482.sphinx3</t>
   </si>
   <si>
-    <t>BENCHMARK</t>
-  </si>
-  <si>
-    <t>BASE REF.</t>
-  </si>
-  <si>
-    <t>RUN TIME</t>
-  </si>
-  <si>
-    <t>BASE RATIO</t>
-  </si>
-  <si>
     <t>483.xalancbmk</t>
   </si>
   <si>
@@ -127,12 +115,6 @@
     <t>473.astar</t>
   </si>
   <si>
-    <t>BENCHMARK 32</t>
-  </si>
-  <si>
-    <t>BENCHMARK32</t>
-  </si>
-  <si>
     <t>RATIO32</t>
   </si>
   <si>
@@ -157,18 +139,6 @@
     <t>jdk 1.5</t>
   </si>
   <si>
-    <t>BOPs 2 domU</t>
-  </si>
-  <si>
-    <t>BOPs 1 domU</t>
-  </si>
-  <si>
-    <t>BOPs nativo</t>
-  </si>
-  <si>
-    <t>BOPs 2 domU *</t>
-  </si>
-  <si>
     <t>Tasa soportada Nativo</t>
   </si>
   <si>
@@ -208,9 +178,6 @@
     <t>log8</t>
   </si>
   <si>
-    <t>XEN</t>
-  </si>
-  <si>
     <t>NATIVO</t>
   </si>
   <si>
@@ -226,12 +193,6 @@
     <t>PV</t>
   </si>
   <si>
-    <t>PEAK REF</t>
-  </si>
-  <si>
-    <t>RUNTIME</t>
-  </si>
-  <si>
     <t xml:space="preserve">ERROR-&gt; </t>
   </si>
   <si>
@@ -256,17 +217,135 @@
     <t>Nativo</t>
   </si>
   <si>
-    <t>Xen</t>
-  </si>
-  <si>
     <t>Docker</t>
+  </si>
+  <si>
+    <t>Secs</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TRAIN</t>
+  </si>
+  <si>
+    <t>BENCHMARK 64b</t>
+  </si>
+  <si>
+    <t>BENCHMARK64b</t>
+  </si>
+  <si>
+    <t>BENCHMARK 32b</t>
+  </si>
+  <si>
+    <t>BENCHMARK32b</t>
+  </si>
+  <si>
+    <t>BENCHMARK-FP 453</t>
+  </si>
+  <si>
+    <t>BENCHMARK-INT-456</t>
+  </si>
+  <si>
+    <t>Base Ref.</t>
+  </si>
+  <si>
+    <t>Base Run</t>
+  </si>
+  <si>
+    <t>Estimated Ratio</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>BENCHMARK FP</t>
+  </si>
+  <si>
+    <t>BENCHMARK INT</t>
+  </si>
+  <si>
+    <t>Peak Runtime</t>
+  </si>
+  <si>
+    <t>Peak Ref</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Tasa soportada Tolerable</t>
+  </si>
+  <si>
+    <t>3CPUS-PV</t>
+  </si>
+  <si>
+    <t>1vcpu / 1024 / igual peso</t>
+  </si>
+  <si>
+    <t>4vcpu / 1024 / igual peso</t>
+  </si>
+  <si>
+    <t>4vcpu / 1024 / 256-256-32</t>
+  </si>
+  <si>
+    <t>4-4-1vcpu /2048 / 4096-256-32</t>
+  </si>
+  <si>
+    <t>4-4-1vcpu / 1024 /4096-256-32</t>
+  </si>
+  <si>
+    <t>xm sched -credit-d20 -c 400</t>
+  </si>
+  <si>
+    <t>https://wiki.xen/wiki/Credit-Scheduler</t>
+  </si>
+  <si>
+    <t>Nativo (PC clase)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>BENCHMARK Nativo</t>
+  </si>
+  <si>
+    <t>BENCHMARK HVM</t>
+  </si>
+  <si>
+    <t>BENCHMARK PV</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Portatil VMWare</t>
+  </si>
+  <si>
+    <t>453 en PV</t>
+  </si>
+  <si>
+    <t>456 en PV</t>
+  </si>
+  <si>
+    <t>HVM vs PV</t>
+  </si>
+  <si>
+    <t>%Nativo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,6 +409,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,12 +468,40 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -457,8 +586,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -488,7 +618,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -506,14 +635,74 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="83" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="83" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="83" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="85">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -555,6 +744,7 @@
     <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="84" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -613,7 +803,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -638,11 +828,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
+              <c:f>CPU!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
+                  <c:v>482.sphinx3 1,8 1,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -663,15 +853,16 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$B$5:$B$21</c:f>
+              <c:f>CPU!$B$6:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -730,14 +921,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$E$5:$E$21</c:f>
+              <c:f>CPU!$E$6:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.44</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5424-4FD2-ACC4-8F56866A45C7}"/>
             </c:ext>
@@ -753,11 +995,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="414142392"/>
-        <c:axId val="414102904"/>
+        <c:axId val="260925968"/>
+        <c:axId val="260926752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414142392"/>
+        <c:axId val="260925968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +1009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414102904"/>
+        <c:crossAx val="260926752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,10 +1017,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414102904"/>
+        <c:axId val="260926752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="52"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -788,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414142392"/>
+        <c:crossAx val="260925968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,7 +1048,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -854,32 +1096,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Jbb!$C$32:$C$36</c:f>
+              <c:f>Jbb!$C$22:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40188</c:v>
+                  <c:v>40666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74171</c:v>
+                  <c:v>74441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98217</c:v>
+                  <c:v>98844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116004</c:v>
+                  <c:v>115844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112595</c:v>
+                  <c:v>112397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7771-4AF2-9DAA-88FA21F0E28B}"/>
+              <c16:uniqueId val="{00000000-4839-48D9-B367-07DB7FAA8328}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -893,11 +1138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1421515951"/>
-        <c:axId val="1421510543"/>
+        <c:axId val="262567184"/>
+        <c:axId val="262567576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1421515951"/>
+        <c:axId val="262567184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +1184,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421510543"/>
+        <c:crossAx val="262567576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -947,7 +1192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1421510543"/>
+        <c:axId val="262567576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1243,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421515951"/>
+        <c:crossAx val="262567184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1048,7 +1293,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1073,7 +1318,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1084,11 +1329,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1096,35 +1341,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Jbb!$C$49:$C$54</c:f>
+              <c:f>Jbb!$C$40:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40666</c:v>
+                  <c:v>67369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74441</c:v>
+                  <c:v>140749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98844</c:v>
+                  <c:v>188739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115844</c:v>
+                  <c:v>218448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112397</c:v>
+                  <c:v>212553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107241</c:v>
+                  <c:v>204490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4839-48D9-B367-07DB7FAA8328}"/>
+              <c16:uniqueId val="{00000000-19FD-492F-BDFA-E62618468075}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1138,11 +1383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1421515951"/>
-        <c:axId val="1421510543"/>
+        <c:axId val="262568360"/>
+        <c:axId val="262568752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1421515951"/>
+        <c:axId val="262568360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1429,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421510543"/>
+        <c:crossAx val="262568752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1192,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1421510543"/>
+        <c:axId val="262568752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1488,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421515951"/>
+        <c:crossAx val="262568360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1293,7 +1538,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1318,7 +1563,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1329,11 +1574,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1341,35 +1586,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Jbb!$C$67:$C$72</c:f>
+              <c:f>Jbb!$D$60:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>67369</c:v>
+                  <c:v>65581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140749</c:v>
+                  <c:v>124740</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188739</c:v>
+                  <c:v>165832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>218448</c:v>
+                  <c:v>157123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212553</c:v>
+                  <c:v>147377</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>204490</c:v>
+                  <c:v>143157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19FD-492F-BDFA-E62618468075}"/>
+              <c16:uniqueId val="{00000000-7904-45AC-83B4-FCF8F81349D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1383,11 +1628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1421515951"/>
-        <c:axId val="1421510543"/>
+        <c:axId val="263532408"/>
+        <c:axId val="263532800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1421515951"/>
+        <c:axId val="263532408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1674,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421510543"/>
+        <c:crossAx val="263532800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1437,7 +1682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1421510543"/>
+        <c:axId val="263532800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1733,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421515951"/>
+        <c:crossAx val="263532408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,252 +1783,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Jbb!$D$87:$D$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>65581</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>124740</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>165832</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>157123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>147377</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>143157</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7904-45AC-83B4-FCF8F81349D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1421515951"/>
-        <c:axId val="1421510543"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1421515951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1421510543"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1421510543"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1421515951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1851,11 +1851,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-FE55-4143-81B1-889AF86A2785}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1871,7 +1871,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1879,7 +1879,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Jbb!$C$49:$C$54</c:f>
+              <c:f>Jbb!$C$22:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1905,7 +1905,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FE55-4143-81B1-889AF86A2785}"/>
             </c:ext>
@@ -1919,7 +1919,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Jbb!$C$67:$C$72</c:f>
+              <c:f>Jbb!$C$40:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1945,7 +1945,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE55-4143-81B1-889AF86A2785}"/>
             </c:ext>
@@ -1960,11 +1960,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="413431368"/>
-        <c:axId val="406812312"/>
+        <c:axId val="263533584"/>
+        <c:axId val="263533976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413431368"/>
+        <c:axId val="263533584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1973,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406812312"/>
+        <c:crossAx val="263533976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1981,7 +1981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406812312"/>
+        <c:axId val="263533976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -2006,13 +2006,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413431368"/>
+        <c:crossAx val="263533584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2029,8 +2030,281 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>web!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>web!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77459999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-266C-45EC-9751-9BE3A5B48603}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="263534760"/>
+        <c:axId val="263535152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="263534760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263535152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263535152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263534760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2065,11 +2339,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
+              <c:f>CPU!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
+                  <c:v>482.sphinx3 1,8 1,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2098,15 +2372,16 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$L$5:$L$16</c:f>
+              <c:f>CPU!$J$6:$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2150,14 +2425,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$O$5:$O$16</c:f>
+              <c:f>CPU!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0297-4D7D-B423-4CFC52971EFB}"/>
             </c:ext>
@@ -2173,11 +2484,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="697096072"/>
-        <c:axId val="697099048"/>
+        <c:axId val="260927536"/>
+        <c:axId val="262760264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="697096072"/>
+        <c:axId val="260927536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697099048"/>
+        <c:crossAx val="262760264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2195,10 +2506,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="697099048"/>
+        <c:axId val="262760264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="67"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2208,7 +2519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697096072"/>
+        <c:crossAx val="260927536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,213 +2537,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="lgCheck">
-              <a:fgClr>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:prstClr val="white"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>CPU!$B$5:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>410.bwaves</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>416.gamess</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>433.milc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>434.zeusmp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>435.gromacs</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>436.cactusADM</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>437.leslie3d</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>444.namd</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>447.dealII</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>450.soplex</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>453.povray</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>454.calculix</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>459.GemsFDTD</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>465.tonto</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>470.lbm</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>481.wrf</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>482.sphinx3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CPU!$E$55:$E$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-52D8-4E55-94B7-E8D51211ABCF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="697178040"/>
-        <c:axId val="697181016"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="697178040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697181016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="697181016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="52"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697178040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2452,203 +2557,12 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.100520533735678"/>
-          <c:y val="3.12876052948255E-2"/>
-          <c:w val="0.89947946626432196"/>
-          <c:h val="0.80023195656499602"/>
+          <c:x val="6.4849215595139648E-2"/>
+          <c:y val="0.13298796444642449"/>
+          <c:w val="0.84857311655308543"/>
+          <c:h val="0.57623199498129885"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="lgCheck">
-              <a:fgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:prstClr val="white"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>CPU!$L$5:$L$16</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.perlbench</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>401.bzip2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>403.gcc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>429.mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>445.gobmk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>456.hmmer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>458.sjeng</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>462.libquantum</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>464.h264ref</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>471.omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>473.astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>483.xalancbmk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CPU!$O$55:$O$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-436D-411A-B335-0B788ECAD5A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="380838168"/>
-        <c:axId val="381254504"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="380838168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381254504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="381254504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="67"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380838168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -2658,11 +2572,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
+              <c:f>CPU!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
+                  <c:v>482.sphinx3 1,8 1,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2683,15 +2597,16 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$B$5:$B$21</c:f>
+              <c:f>CPU!$B$6:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2750,14 +2665,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$C$106:$C$106</c:f>
+              <c:f>CPU!$C$62:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11C7-4953-85BD-3F345DC43463}"/>
             </c:ext>
@@ -2795,22 +2713,26 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$D$106:$D$106</c:f>
+              <c:f>CPU!$D$62:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-11C7-4953-85BD-3F345DC43463}"/>
             </c:ext>
@@ -2825,21 +2747,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413863688"/>
-        <c:axId val="404255064"/>
+        <c:axId val="262761440"/>
+        <c:axId val="262761832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413863688"/>
+        <c:axId val="262761440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404255064"/>
+        <c:crossAx val="262761832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2847,7 +2769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404255064"/>
+        <c:axId val="262761832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="52"/>
@@ -2860,7 +2782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413863688"/>
+        <c:crossAx val="262761440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,8 +2799,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2903,11 +2825,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
+              <c:f>CPU!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
+                  <c:v>482.sphinx3 1,8 1,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2936,33 +2858,37 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$L$106:$L$106</c:f>
+              <c:f>CPU!$L$62:$L$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>456.hmmer</c:v>
+                  <c:v>Estimated Ratio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$M$106:$M$106</c:f>
+              <c:f>CPU!$M$62:$M$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-837F-4946-9B63-99E6DC69CB58}"/>
             </c:ext>
@@ -3000,33 +2926,37 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$L$106:$L$106</c:f>
+              <c:f>CPU!$L$62:$L$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>456.hmmer</c:v>
+                  <c:v>Estimated Ratio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$N$106:$N$106</c:f>
+              <c:f>CPU!$N$62:$N$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-837F-4946-9B63-99E6DC69CB58}"/>
             </c:ext>
@@ -3041,21 +2971,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413666808"/>
-        <c:axId val="413669784"/>
+        <c:axId val="262841288"/>
+        <c:axId val="262841680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413666808"/>
+        <c:axId val="262841288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413669784"/>
+        <c:crossAx val="262841680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3063,10 +2993,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413669784"/>
+        <c:axId val="262841680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="65"/>
+          <c:max val="23"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3076,7 +3006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413666808"/>
+        <c:crossAx val="262841288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3093,8 +3023,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3119,15 +3049,23 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
+              <c:f>CPU!$B$22:$D$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
+                  <c:v>482.sphinx3 1,8 1,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -3144,15 +3082,16 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$B$5:$B$21</c:f>
+              <c:f>CPU!$B$6:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -3211,14 +3150,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$C$106</c:f>
+              <c:f>CPU!$C$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5AD2-454E-9C4E-D0FB2E3B3688}"/>
             </c:ext>
@@ -3231,8 +3173,8 @@
             <a:pattFill prst="lgCheck">
               <a:fgClr>
                 <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
@@ -3256,22 +3198,85 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CPU!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>410.bwaves</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416.gamess</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433.milc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434.zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435.gromacs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436.cactusADM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>437.leslie3d</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>444.namd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>447.dealII</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450.soplex</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>453.povray</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>454.calculix</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>459.GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>465.tonto</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470.lbm</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>481.wrf</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>482.sphinx3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$D$116</c:f>
+              <c:f>CPU!$D$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5AD2-454E-9C4E-D0FB2E3B3688}"/>
             </c:ext>
@@ -3286,21 +3291,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413863688"/>
-        <c:axId val="404255064"/>
+        <c:axId val="262842856"/>
+        <c:axId val="262843248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413863688"/>
+        <c:axId val="262842856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404255064"/>
+        <c:crossAx val="262843248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3308,10 +3313,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404255064"/>
+        <c:axId val="262843248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="52"/>
+          <c:max val="40"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3321,7 +3326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413863688"/>
+        <c:crossAx val="262842856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3338,8 +3343,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3364,11 +3369,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CPU!$B$21:$D$21</c:f>
+              <c:f>CPU!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>482.sphinx3</c:v>
+                  <c:v>482.sphinx3 1,8 1,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3376,8 +3381,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
@@ -3397,35 +3402,87 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$L$106:$L$106</c:f>
+              <c:f>CPU!$B$6:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>456.hmmer</c:v>
+                  <c:v>410.bwaves</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416.gamess</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433.milc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434.zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435.gromacs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436.cactusADM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>437.leslie3d</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>444.namd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>447.dealII</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450.soplex</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>453.povray</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>454.calculix</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>459.GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>465.tonto</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470.lbm</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>481.wrf</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>482.sphinx3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$M$106:$M$106</c:f>
+              <c:f>CPU!$M$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A313-4C39-8731-9F24D16538DB}"/>
+              <c16:uniqueId val="{00000000-4709-4B30-8582-E462945897A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3436,8 +3493,8 @@
             <a:pattFill prst="lgCheck">
               <a:fgClr>
                 <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
@@ -3461,35 +3518,87 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CPU!$L$106:$L$106</c:f>
+              <c:f>CPU!$B$6:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>456.hmmer</c:v>
+                  <c:v>410.bwaves</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416.gamess</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433.milc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434.zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435.gromacs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436.cactusADM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>437.leslie3d</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>444.namd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>447.dealII</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450.soplex</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>453.povray</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>454.calculix</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>459.GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>465.tonto</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470.lbm</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>481.wrf</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>482.sphinx3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU!$N$116:$N$116</c:f>
+              <c:f>CPU!$N$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.97</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A313-4C39-8731-9F24D16538DB}"/>
+              <c16:uniqueId val="{00000001-4709-4B30-8582-E462945897A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3502,21 +3611,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413666808"/>
-        <c:axId val="413669784"/>
+        <c:axId val="262844032"/>
+        <c:axId val="262844424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413666808"/>
+        <c:axId val="262844032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413669784"/>
+        <c:crossAx val="262844424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3524,10 +3633,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413669784"/>
+        <c:axId val="262844424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="65"/>
+          <c:max val="23"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3537,7 +3646,435 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413666808"/>
+        <c:crossAx val="262844032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CPU!$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08DA-4D74-A03E-D6670C4905CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CPU!$D$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08DA-4D74-A03E-D6670C4905CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CPU!$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-08DA-4D74-A03E-D6670C4905CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="262842464"/>
+        <c:axId val="262763792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="262842464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262763792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="262763792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262842464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CPU!$N$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17BF-435C-92D7-9331B1197E3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CPU!$N$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17BF-435C-92D7-9331B1197E3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CPU!$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17BF-435C-92D7-9331B1197E3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="262763008"/>
+        <c:axId val="262762616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="262763008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262762616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="262762616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262763008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3555,238 +4092,90 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12033874740301406"/>
+          <c:y val="7.3184663779137904E-2"/>
+          <c:w val="0.85181094951112846"/>
+          <c:h val="0.8435757047085255"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Jbb!$B$3:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Jbb!$C$3:$C$10</c:f>
+              <c:f>Jbb!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>47411</c:v>
+                  <c:v>40188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71506</c:v>
+                  <c:v>74171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77591</c:v>
+                  <c:v>98217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80213</c:v>
+                  <c:v>116004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80745</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>77032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78933</c:v>
+                  <c:v>112595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51FC-4CEA-B631-C2F865191C85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Jbb!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>38071</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66396</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70443</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68443</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67689</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64896</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61424</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51FC-4CEA-B631-C2F865191C85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Jbb!$E$3:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>26370</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52545</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55212</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54569</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53630</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52880</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43480</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-51FC-4CEA-B631-C2F865191C85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Jbb!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>27156</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44886</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64611</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63080</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62095</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-51FC-4CEA-B631-C2F865191C85}"/>
+              <c16:uniqueId val="{00000001-7771-4AF2-9DAA-88FA21F0E28B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3798,21 +4187,55 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381077000"/>
-        <c:axId val="406744264"/>
+        <c:axId val="262566008"/>
+        <c:axId val="262566400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381077000"/>
+        <c:axId val="262566008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406744264"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262566400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3820,31 +4243,101 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406744264"/>
+        <c:axId val="262566400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="81000"/>
-          <c:min val="25000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381077000"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262566008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4007,6 +4500,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6019,20 +6552,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6053,16 +7089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>707573</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6086,19 +7122,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6118,19 +7154,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6150,19 +7186,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="9" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6182,19 +7218,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="11" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6213,20 +7249,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 6"/>
+        <xdr:cNvPr id="10" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6245,20 +7281,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 7"/>
+        <xdr:cNvPr id="12" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6282,20 +7318,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6313,20 +7349,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6342,20 +7380,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>941917</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6374,20 +7412,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>941917</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109802</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6406,20 +7444,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107157</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>109802</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>76729</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="8" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6436,25 +7474,28 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>672040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6462,7 +7503,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6793,1472 +7834,2316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R168"/>
+  <dimension ref="B2:R122"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:16">
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="C4" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="K4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>151</v>
+      </c>
+      <c r="G6" s="9">
+        <v>122</v>
+      </c>
+      <c r="H6" s="9">
+        <v>123</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.47</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3.59</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3.44</v>
+      </c>
+      <c r="N6" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="O6" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="F7" s="9">
+        <v>103</v>
+      </c>
+      <c r="G7" s="9">
+        <v>88.3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>88</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4.88</v>
+      </c>
+      <c r="L7" s="9">
+        <v>6.74</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="N7" s="9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O7" s="9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P7" s="9">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7.62</v>
+      </c>
+      <c r="E8" s="9">
+        <v>7.48</v>
+      </c>
+      <c r="F8" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>13.1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9.08</v>
+      </c>
+      <c r="F9" s="9">
+        <v>24.8</v>
+      </c>
+      <c r="G9" s="9">
+        <v>20.9</v>
+      </c>
+      <c r="H9" s="9">
+        <v>20.9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2.21</v>
+      </c>
+      <c r="N9" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="O9" s="9">
+        <v>16</v>
+      </c>
+      <c r="P9" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.01</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F10" s="9">
+        <v>87.2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="H10" s="9">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M10" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="N10" s="9">
+        <v>82.6</v>
+      </c>
+      <c r="O10" s="9">
+        <v>82.4</v>
+      </c>
+      <c r="P10" s="9">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F11" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="G11" s="9">
+        <v>17</v>
+      </c>
+      <c r="H11" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="19">
+        <v>2.14</v>
+      </c>
+      <c r="L11" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="M11" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="N11" s="19">
+        <v>47.6</v>
+      </c>
+      <c r="O11" s="19">
+        <v>41.3</v>
+      </c>
+      <c r="P11" s="19">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9.09</v>
+      </c>
+      <c r="E12" s="9">
+        <v>8.66</v>
+      </c>
+      <c r="F12" s="9">
+        <v>61.9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>51.7</v>
+      </c>
+      <c r="H12" s="9">
+        <v>51.9</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.45</v>
+      </c>
+      <c r="L12" s="9">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M12" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="N12" s="20">
+        <v>126</v>
+      </c>
+      <c r="O12" s="20">
+        <v>99.1</v>
+      </c>
+      <c r="P12" s="20">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9.85</v>
+      </c>
+      <c r="E13" s="9">
+        <v>9.84</v>
+      </c>
+      <c r="F13" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>9.81</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9.82</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L14" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="N14" s="9">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="O14" s="9">
+        <v>58</v>
+      </c>
+      <c r="P14" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>6.08</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.377</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N15" s="9">
+        <v>53.1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="P15" s="9">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F16" s="19">
+        <v>5.53</v>
+      </c>
+      <c r="G16" s="19">
+        <v>4.72</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4.51</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="9">
+        <v>8.52</v>
+      </c>
+      <c r="L16" s="9">
+        <v>9.89</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8.19</v>
+      </c>
+      <c r="N16" s="9">
+        <v>115</v>
+      </c>
+      <c r="O16" s="9">
+        <v>87.8</v>
+      </c>
+      <c r="P16" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.31</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.59</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.47</v>
+      </c>
+      <c r="F18" s="9">
+        <v>29.3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="H18" s="9">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="F19" s="9">
+        <v>153</v>
+      </c>
+      <c r="G19" s="9">
+        <v>152</v>
+      </c>
+      <c r="H19" s="9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2.61</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="F20" s="9">
+        <v>26.8</v>
+      </c>
+      <c r="G20" s="9">
+        <v>26.9</v>
+      </c>
+      <c r="H20" s="9">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>7.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.44</v>
+      </c>
+      <c r="F22" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="G22" s="9">
+        <v>7.81</v>
+      </c>
+      <c r="H22" s="9">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="15">
+        <v>137</v>
+      </c>
+      <c r="D53" s="15">
+        <v>38.9</v>
+      </c>
+      <c r="E53" s="15">
+        <v>136</v>
+      </c>
+      <c r="F53" s="15">
+        <v>39.1</v>
+      </c>
+      <c r="G53" s="15">
+        <v>136</v>
+      </c>
+      <c r="H53" s="15">
+        <v>39.1</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="L53" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="15">
+        <v>416</v>
+      </c>
+      <c r="N53" s="15">
+        <v>22.4</v>
+      </c>
+      <c r="O53" s="15">
+        <v>413</v>
+      </c>
+      <c r="P53" s="15">
+        <v>22.6</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>413</v>
+      </c>
+      <c r="R53" s="15">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="L55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="15">
+        <v>184</v>
+      </c>
+      <c r="D56" s="15">
+        <v>28.9</v>
+      </c>
+      <c r="E56" s="15">
+        <v>208</v>
+      </c>
+      <c r="F56" s="15">
+        <v>25.6</v>
+      </c>
+      <c r="G56" s="15">
+        <v>184</v>
+      </c>
+      <c r="H56" s="15">
+        <v>28.9</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="L56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="15">
+        <v>818</v>
+      </c>
+      <c r="N56" s="15">
+        <v>11.4</v>
+      </c>
+      <c r="O56" s="15">
+        <v>860</v>
+      </c>
+      <c r="P56" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>736</v>
+      </c>
+      <c r="R56" s="15">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="24">
+        <v>5320</v>
+      </c>
+      <c r="D60" s="24">
+        <v>5320</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M60" s="24">
+        <v>9330</v>
+      </c>
+      <c r="N60" s="24">
+        <v>9330</v>
+      </c>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="24">
+        <v>136</v>
+      </c>
+      <c r="D61" s="24">
+        <v>184</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M61" s="24">
+        <v>413</v>
+      </c>
+      <c r="N61" s="24">
+        <v>818</v>
+      </c>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="24">
+        <v>39.1</v>
+      </c>
+      <c r="D62" s="24">
+        <v>28.9</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="L62" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" s="24">
+        <v>22.6</v>
+      </c>
+      <c r="N62" s="24">
+        <v>11.4</v>
+      </c>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2">
+        <v>13</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="2">
+        <v>156</v>
+      </c>
+      <c r="N72" s="2">
+        <v>155</v>
+      </c>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="24">
+        <v>39.1</v>
+      </c>
+      <c r="D75" s="24">
+        <v>13.3</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="L75" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="N75" s="24">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
+      <c r="B84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="24">
+        <v>5320</v>
+      </c>
+      <c r="D85" s="24">
+        <v>5320</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M85" s="24">
+        <v>9330</v>
+      </c>
+      <c r="N85" s="24">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18">
+      <c r="B90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P90" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q90" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R90" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18">
+      <c r="B91" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="19">
+        <v>137</v>
+      </c>
+      <c r="D91" s="19">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E91" s="19">
+        <v>138</v>
+      </c>
+      <c r="F91" s="19">
+        <v>38.6</v>
+      </c>
+      <c r="G91" s="19">
+        <v>137</v>
+      </c>
+      <c r="H91" s="19">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="L91" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" s="19">
+        <v>376</v>
+      </c>
+      <c r="N91" s="19">
+        <v>24.8</v>
+      </c>
+      <c r="O91" s="19">
+        <v>376</v>
+      </c>
+      <c r="P91" s="19">
+        <v>24.8</v>
+      </c>
+      <c r="Q91" s="19">
+        <v>376</v>
+      </c>
+      <c r="R91" s="19">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
+      <c r="B92" s="29"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
+    </row>
+    <row r="93" spans="2:18">
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18">
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O95" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18">
+      <c r="B96" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="19">
+        <v>154</v>
+      </c>
+      <c r="D96" s="19">
+        <v>34.6</v>
+      </c>
+      <c r="E96" s="33">
+        <f>C91/C96</f>
+        <v>0.88961038961038963</v>
+      </c>
+      <c r="L96" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" s="19">
+        <v>423</v>
+      </c>
+      <c r="N96" s="19">
+        <v>22</v>
+      </c>
+      <c r="O96" s="33">
+        <f>M91/M96</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O100" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="19">
+        <v>125</v>
+      </c>
+      <c r="D101" s="19">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E101" s="33">
+        <f>C101/C91</f>
+        <v>0.91240875912408759</v>
+      </c>
+      <c r="L101" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" s="19">
+        <v>413</v>
+      </c>
+      <c r="N101" s="19">
+        <v>22.6</v>
+      </c>
+      <c r="O101" s="32">
+        <f>M91/M101</f>
+        <v>0.91041162227602901</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15">
+      <c r="B105" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15">
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107">
+        <v>154</v>
+      </c>
+      <c r="E107">
+        <v>154</v>
+      </c>
+      <c r="F107">
+        <v>154</v>
+      </c>
+      <c r="H107">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15">
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108">
+        <v>423</v>
+      </c>
+      <c r="E108">
+        <v>423</v>
+      </c>
+      <c r="F108">
+        <v>423</v>
+      </c>
+      <c r="H108">
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15">
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109">
+        <v>154</v>
+      </c>
+      <c r="E109">
+        <v>154</v>
+      </c>
+      <c r="F109">
+        <v>154</v>
+      </c>
+      <c r="H109">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15">
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110">
+        <v>154</v>
+      </c>
+      <c r="E110">
+        <v>154</v>
+      </c>
+      <c r="F110">
+        <v>154</v>
+      </c>
+      <c r="H110">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15">
+      <c r="B111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111">
+        <v>423</v>
+      </c>
+      <c r="E111">
+        <v>423</v>
+      </c>
+      <c r="F111">
+        <v>423</v>
+      </c>
+      <c r="H111">
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15">
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112">
+        <v>154</v>
+      </c>
+      <c r="E112">
+        <v>154</v>
+      </c>
+      <c r="F112">
+        <v>154</v>
+      </c>
+      <c r="H112">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18">
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113">
+        <v>153</v>
+      </c>
+      <c r="E113">
+        <v>153</v>
+      </c>
+      <c r="F113">
+        <v>309</v>
+      </c>
+      <c r="H113">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18">
+      <c r="B115" t="s">
+        <v>90</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18">
+      <c r="B120" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+    </row>
+    <row r="121" spans="2:18">
+      <c r="B121" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="34">
+        <v>136</v>
+      </c>
+      <c r="L121" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M121" s="34">
+        <v>413</v>
+      </c>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+    </row>
+    <row r="122" spans="2:18">
+      <c r="B122" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="19">
+        <v>125</v>
+      </c>
+      <c r="L122" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M122" s="19">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E115" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M97"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>40188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>74171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>98217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>116004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>112595</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>40666</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>74441</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6">
+        <v>98844</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>115844</v>
+      </c>
+      <c r="D25" s="25">
+        <v>117878</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="8">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>112397</v>
+      </c>
+      <c r="D26" s="25">
+        <v>114776</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="8">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>107241</v>
+      </c>
+      <c r="D27" s="25">
+        <v>109836</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <f>C43/C25</f>
+        <v>1.8857083664238112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>67369</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>140749</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="8">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6">
+        <v>188739</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="8">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6">
+        <v>218448</v>
+      </c>
+      <c r="D43" s="26">
+        <f>C43*0.75</f>
+        <v>163836</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="8">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6">
+        <v>212553</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="8">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>204490</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="C50">
+        <f>C43*0.8</f>
+        <v>174758.40000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="K51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="K52" s="8">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6">
+        <v>40666</v>
+      </c>
+      <c r="M52" s="6">
+        <v>67369</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="K53" s="8">
+        <v>2</v>
+      </c>
+      <c r="L53" s="6">
+        <v>74441</v>
+      </c>
+      <c r="M53" s="6">
+        <v>140749</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="K54" s="8">
+        <v>3</v>
+      </c>
+      <c r="L54" s="6">
+        <v>98844</v>
+      </c>
+      <c r="M54" s="6">
+        <v>188739</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="K55" s="8">
+        <v>4</v>
+      </c>
+      <c r="L55" s="6">
+        <v>115844</v>
+      </c>
+      <c r="M55" s="6">
+        <v>218448</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="K56" s="8">
+        <v>5</v>
+      </c>
+      <c r="L56" s="6">
+        <v>112397</v>
+      </c>
+      <c r="M56" s="6">
+        <v>212553</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="8">
+        <v>6</v>
+      </c>
+      <c r="L57" s="6">
+        <v>107241</v>
+      </c>
+      <c r="M57" s="6">
+        <v>204490</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6">
+        <v>66119</v>
+      </c>
+      <c r="D60" s="6">
+        <v>65581</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="8">
+        <v>2</v>
+      </c>
+      <c r="C61" s="6">
+        <v>123393</v>
+      </c>
+      <c r="D61" s="6">
+        <v>124740</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="8">
+        <v>3</v>
+      </c>
+      <c r="C62" s="6">
+        <v>162715</v>
+      </c>
+      <c r="D62" s="6">
+        <v>165832</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="8">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6">
+        <v>153594</v>
+      </c>
+      <c r="D63" s="6">
+        <v>157123</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="8">
+        <v>5</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6">
+        <v>147377</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="8">
+        <v>6</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6">
+        <v>143157</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="C68" s="17">
+        <f>C62/C43</f>
+        <v>0.74486834395370982</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="8">
+        <v>1</v>
+      </c>
+      <c r="C80" s="6">
+        <v>59002</v>
+      </c>
+      <c r="E80" s="8">
+        <v>3</v>
+      </c>
+      <c r="F80" s="6">
+        <v>145574</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="8">
+        <v>3</v>
+      </c>
+      <c r="K80" s="6">
+        <v>188739</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="8">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6">
+        <v>117802</v>
+      </c>
+      <c r="E81" s="8">
+        <v>4</v>
+      </c>
+      <c r="F81" s="6">
+        <v>171015</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J81" s="8">
+        <v>4</v>
+      </c>
+      <c r="K81" s="6">
+        <v>218448</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="8">
+        <v>3</v>
+      </c>
+      <c r="C82" s="6">
+        <v>165047</v>
+      </c>
+      <c r="F82" s="17">
+        <f>F81/C43</f>
+        <v>0.78286365633926613</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="L5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="3" t="s">
+      <c r="K82" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="8">
+        <v>4</v>
+      </c>
+      <c r="C83" s="6">
+        <v>191935</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="8">
+        <v>5</v>
+      </c>
+      <c r="C84" s="6">
+        <v>184317</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="8">
+        <v>6</v>
+      </c>
+      <c r="C85" s="6">
+        <v>177593</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="36">
+        <f>C83/C43</f>
+        <v>0.87863015454478866</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="35">
+        <v>1</v>
+      </c>
+      <c r="C91" s="35">
+        <v>54211</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="35">
+        <v>2</v>
+      </c>
+      <c r="C92" s="35">
+        <v>109170</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="35">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="L6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="3" t="s">
+      <c r="C93" s="35">
+        <v>151526</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="35">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="L7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="3" t="s">
+      <c r="C94" s="35">
+        <v>184005</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="L8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="3" t="s">
+      <c r="C95" s="35">
+        <v>177647</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="35">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="L9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="L10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="L11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="L12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="3" t="s">
+      <c r="C96" s="35">
+        <v>172575</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="37">
+        <v>0.84230000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="9">
+        <v>100</v>
+      </c>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="L13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="L14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="L15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="L16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="51" spans="2:18">
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="L55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="L56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="2:18">
-      <c r="B57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="L57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="2:18">
-      <c r="B58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="L58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="2:18">
-      <c r="B59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="L59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="2:18">
-      <c r="B60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="L60" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-    </row>
-    <row r="61" spans="2:18">
-      <c r="B61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="L61" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="2:18">
-      <c r="B62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="L62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="2:18">
-      <c r="B63" s="3" t="s">
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="9">
+        <v>140</v>
+      </c>
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="L63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="2:18">
-      <c r="B64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="L64" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="2:18">
-      <c r="B65" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="L65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="2:18">
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="L66" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="2:18">
-      <c r="B67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:18">
-      <c r="B68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="2:18">
-      <c r="B69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="2:18">
-      <c r="B70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="B71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="105" spans="2:18">
-      <c r="B105" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M105" s="2" t="s">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="9">
+        <v>145</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="9">
+        <v>146</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="9">
+        <v>147</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.9415</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="9">
+        <v>150</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.77459999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N105" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-    </row>
-    <row r="106" spans="2:18">
-      <c r="B106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="L106" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="13"/>
-    </row>
-    <row r="115" spans="2:14">
-      <c r="B115" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D115" s="2" t="s">
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14">
-      <c r="B116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="L116" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-    </row>
-    <row r="127" spans="2:14">
-      <c r="B127" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="129" spans="2:18">
-      <c r="B129" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q129" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R129" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="130" spans="2:18">
-      <c r="B130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="L130" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-    </row>
-    <row r="131" spans="2:18">
-      <c r="B131" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="L131" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-    </row>
-    <row r="132" spans="2:18">
-      <c r="B132" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="L132" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-    </row>
-    <row r="133" spans="2:18">
-      <c r="B133" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="L133" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-    </row>
-    <row r="134" spans="2:18">
-      <c r="B134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="L134" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-    </row>
-    <row r="135" spans="2:18">
-      <c r="B135" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="L135" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M135" s="16"/>
-      <c r="N135" s="16"/>
-      <c r="O135" s="16"/>
-      <c r="P135" s="16"/>
-      <c r="Q135" s="16"/>
-      <c r="R135" s="16"/>
-    </row>
-    <row r="136" spans="2:18">
-      <c r="B136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="L136" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-    </row>
-    <row r="137" spans="2:18">
-      <c r="B137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="L137" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-    </row>
-    <row r="138" spans="2:18">
-      <c r="B138" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="L138" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-    </row>
-    <row r="139" spans="2:18">
-      <c r="B139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="L139" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-    </row>
-    <row r="140" spans="2:18">
-      <c r="B140" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="L140" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-    </row>
-    <row r="141" spans="2:18">
-      <c r="B141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="L141" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-    </row>
-    <row r="142" spans="2:18">
-      <c r="B142" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="2:18">
-      <c r="B143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="2:18">
-      <c r="B144" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="2:18">
-      <c r="B145" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="2:18">
-      <c r="B146" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="149" spans="2:18">
-      <c r="B149" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="2:18">
-      <c r="B151" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P151" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q151" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R151" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="152" spans="2:18">
-      <c r="B152" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="L152" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-    </row>
-    <row r="153" spans="2:18">
-      <c r="B153" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="L153" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-    </row>
-    <row r="154" spans="2:18">
-      <c r="B154" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="L154" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-    </row>
-    <row r="155" spans="2:18">
-      <c r="B155" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="L155" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-    </row>
-    <row r="156" spans="2:18">
-      <c r="B156" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="L156" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-    </row>
-    <row r="157" spans="2:18">
-      <c r="B157" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="L157" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M157" s="16"/>
-      <c r="N157" s="16"/>
-      <c r="O157" s="16"/>
-      <c r="P157" s="16"/>
-      <c r="Q157" s="16"/>
-      <c r="R157" s="16"/>
-    </row>
-    <row r="158" spans="2:18">
-      <c r="B158" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="L158" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
-    </row>
-    <row r="159" spans="2:18">
-      <c r="B159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="L159" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-    </row>
-    <row r="160" spans="2:18">
-      <c r="B160" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="L160" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
-    </row>
-    <row r="161" spans="2:18">
-      <c r="B161" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="L161" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
-    </row>
-    <row r="162" spans="2:18">
-      <c r="B162" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="L162" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-    </row>
-    <row r="163" spans="2:18">
-      <c r="B163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="L163" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-    </row>
-    <row r="164" spans="2:18">
-      <c r="B164" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="2:18">
-      <c r="B165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="2:18">
-      <c r="B166" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-    </row>
-    <row r="167" spans="2:18">
-      <c r="B167" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-    </row>
-    <row r="168" spans="2:18">
-      <c r="B168" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8272,820 +10157,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H125"/>
-  <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>47411</v>
-      </c>
-      <c r="D3" s="9">
-        <v>38071</v>
-      </c>
-      <c r="E3" s="9">
-        <v>26370</v>
-      </c>
-      <c r="F3" s="9">
-        <v>27156</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>71506</v>
-      </c>
-      <c r="D4" s="9">
-        <v>62302</v>
-      </c>
-      <c r="E4" s="9">
-        <v>44131</v>
-      </c>
-      <c r="F4" s="9">
-        <v>44886</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>77591</v>
-      </c>
-      <c r="D5" s="9">
-        <v>66396</v>
-      </c>
-      <c r="E5" s="9">
-        <v>52545</v>
-      </c>
-      <c r="F5" s="9">
-        <v>53142</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9">
-        <v>80213</v>
-      </c>
-      <c r="D6" s="9">
-        <v>70443</v>
-      </c>
-      <c r="E6" s="9">
-        <v>55212</v>
-      </c>
-      <c r="F6" s="9">
-        <v>64611</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>80251</v>
-      </c>
-      <c r="D7" s="9">
-        <v>68443</v>
-      </c>
-      <c r="E7" s="9">
-        <v>54569</v>
-      </c>
-      <c r="F7" s="9">
-        <v>63080</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9">
-        <v>80745</v>
-      </c>
-      <c r="D8" s="9">
-        <v>67689</v>
-      </c>
-      <c r="E8" s="9">
-        <v>53630</v>
-      </c>
-      <c r="F8" s="9">
-        <v>62095</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>77032</v>
-      </c>
-      <c r="D9" s="9">
-        <v>64896</v>
-      </c>
-      <c r="E9" s="9">
-        <v>52880</v>
-      </c>
-      <c r="F9" s="9">
-        <v>59529</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9">
-        <v>78933</v>
-      </c>
-      <c r="D10" s="9">
-        <v>61424</v>
-      </c>
-      <c r="E10" s="9">
-        <v>43480</v>
-      </c>
-      <c r="F10" s="9">
-        <v>57634</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>40188</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="8">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6">
-        <v>74171</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="8">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6">
-        <v>98217</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8">
-        <v>4</v>
-      </c>
-      <c r="C35" s="6">
-        <v>116004</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="8">
-        <v>5</v>
-      </c>
-      <c r="C36" s="6">
-        <v>112595</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="8">
-        <v>6</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="8">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6">
-        <v>40666</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="8">
-        <v>2</v>
-      </c>
-      <c r="C50" s="6">
-        <v>74441</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="8">
-        <v>3</v>
-      </c>
-      <c r="C51" s="6">
-        <v>98844</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="8">
-        <v>4</v>
-      </c>
-      <c r="C52" s="6">
-        <v>115844</v>
-      </c>
-      <c r="D52">
-        <v>117878</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="8">
-        <v>5</v>
-      </c>
-      <c r="C53" s="6">
-        <v>112397</v>
-      </c>
-      <c r="D53">
-        <v>114776</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="8">
-        <v>6</v>
-      </c>
-      <c r="C54" s="6">
-        <v>107241</v>
-      </c>
-      <c r="D54">
-        <v>109836</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="C65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="8">
-        <v>1</v>
-      </c>
-      <c r="C67" s="6">
-        <v>67369</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="8">
-        <v>2</v>
-      </c>
-      <c r="C68" s="6">
-        <v>140749</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="8">
-        <v>3</v>
-      </c>
-      <c r="C69" s="6">
-        <v>188739</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="8">
-        <v>4</v>
-      </c>
-      <c r="C70" s="6">
-        <v>218448</v>
-      </c>
-      <c r="D70" s="11">
-        <f>C70*0.75</f>
-        <v>163836</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="8">
-        <v>5</v>
-      </c>
-      <c r="C71" s="6">
-        <v>212553</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="8">
-        <v>6</v>
-      </c>
-      <c r="C72" s="6">
-        <v>204490</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="C77">
-        <f>C70*0.8</f>
-        <v>174758.40000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="C85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="8">
-        <v>1</v>
-      </c>
-      <c r="C87" s="6">
-        <v>66119</v>
-      </c>
-      <c r="D87" s="6">
-        <v>65581</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="8">
-        <v>2</v>
-      </c>
-      <c r="C88" s="6">
-        <v>123393</v>
-      </c>
-      <c r="D88" s="6">
-        <v>124740</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="8">
-        <v>3</v>
-      </c>
-      <c r="C89" s="6">
-        <v>162715</v>
-      </c>
-      <c r="D89" s="6">
-        <v>165832</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="8">
-        <v>4</v>
-      </c>
-      <c r="C90" s="6">
-        <v>153594</v>
-      </c>
-      <c r="D90" s="6">
-        <v>157123</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="8">
-        <v>5</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6">
-        <v>147377</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="8">
-        <v>6</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6">
-        <v>143157</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="C95" s="18">
-        <f>C89/C70</f>
-        <v>0.74486834395370982</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="8">
-        <v>1</v>
-      </c>
-      <c r="C107" s="6">
-        <v>59002</v>
-      </c>
-      <c r="E107" s="8">
-        <v>1</v>
-      </c>
-      <c r="F107" s="6"/>
-      <c r="H107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108" s="8">
-        <v>2</v>
-      </c>
-      <c r="C108" s="6">
-        <v>117802</v>
-      </c>
-      <c r="E108" s="8">
-        <v>2</v>
-      </c>
-      <c r="F108" s="6"/>
-      <c r="H108" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="8">
-        <v>3</v>
-      </c>
-      <c r="C109" s="6">
-        <v>165047</v>
-      </c>
-      <c r="E109" s="8">
-        <v>3</v>
-      </c>
-      <c r="F109" s="6">
-        <v>145574</v>
-      </c>
-      <c r="H109" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="8">
-        <v>4</v>
-      </c>
-      <c r="C110" s="6">
-        <v>191935</v>
-      </c>
-      <c r="E110" s="8">
-        <v>4</v>
-      </c>
-      <c r="F110" s="6">
-        <v>171015</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="8">
-        <v>5</v>
-      </c>
-      <c r="C111" s="6">
-        <v>184317</v>
-      </c>
-      <c r="E111" s="8">
-        <v>5</v>
-      </c>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="8">
-        <v>6</v>
-      </c>
-      <c r="C112" s="6">
-        <v>177593</v>
-      </c>
-      <c r="E112" s="8">
-        <v>6</v>
-      </c>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="C113" s="18">
-        <f>C110/C70</f>
-        <v>0.87863015454478866</v>
-      </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18">
-        <f>F110/C70</f>
-        <v>0.78286365633926613</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="8">
-        <v>1</v>
-      </c>
-      <c r="C119" s="6">
-        <v>54211</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="8">
-        <v>2</v>
-      </c>
-      <c r="C120" s="6">
-        <v>109170</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="8">
-        <v>3</v>
-      </c>
-      <c r="C121" s="6">
-        <v>151526</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="8">
-        <v>4</v>
-      </c>
-      <c r="C122" s="6">
-        <v>184005</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="8">
-        <v>5</v>
-      </c>
-      <c r="C123" s="6">
-        <v>177647</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="8">
-        <v>6</v>
-      </c>
-      <c r="C124" s="6">
-        <v>172575</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="C125" s="18">
-        <f>C122/C70</f>
-        <v>0.84232860909690177</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<idboxElements>
+  <DicTables/>
+  <documents/>
+  <tables/>
+  <graphs/>
+  <lastValues/>
+</idboxElements>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="9">
-        <v>100</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="9">
-        <v>140</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="9">
-        <v>145</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="9">
-        <v>146</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="9">
-        <v>147</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.9415</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="9">
-        <v>150</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.77459999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C624AEF0-9043-4A58-8E62-34F431E14110}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>